--- a/biology/Botanique/Saponaria/Saponaria.xlsx
+++ b/biology/Botanique/Saponaria/Saponaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saponaria est un genre de plantes de la famille des Caryophyllaceae. Plusieurs espèces sont appelées saponaires. 
-Le genre doit son nom au fait que les rhizomes de plusieurs espèces contiennent des saponines faisant mousser l'eau et leur permettant (au moins pour l'espèce Saponaria officinalis) d'être utilisées comme substitut du savon, d'où ses autres noms d’herbe à savon, savon du fossé, savonnière ou herbe à femme[1]. On en connaît en tout une vingtaine d'espèces, le plus souvent méditerranéennes.
+Le genre doit son nom au fait que les rhizomes de plusieurs espèces contiennent des saponines faisant mousser l'eau et leur permettant (au moins pour l'espèce Saponaria officinalis) d'être utilisées comme substitut du savon, d'où ses autres noms d’herbe à savon, savon du fossé, savonnière ou herbe à femme. On en connaît en tout une vingtaine d'espèces, le plus souvent méditerranéennes.
 Ce sont des plantes herbacées vivaces à feuilles simples et entières, opposées. Long calice tubulé à cinq dents avec de nombreuses nervures (de 15 à 25). Corolle à cinq pétales roses ou jaunes avec des écailles à la gorge. Dix étamines et généralement deux styles. Le fruit est une capsule à quatre valves.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (6 oct. 2011)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (6 oct. 2011) :
 Saponaria calabrica
 Saponaria glutinosa
 Saponaria ocymoides
@@ -523,7 +537,7 @@
 Saponaria pumila
 Saponaria sicula
 Saponaria × lempergii
-Selon ITIS      (6 oct. 2011)[3] :
+Selon ITIS      (6 oct. 2011) :
 Saponaria bellidifolia Sm. - Saponaire à feuilles de Pâquerette
 Saponaria caespitosa DC. - Saponaire gazonnante
 Saponaria lutea L. - Saponaire jaune
